--- a/data/gihun/dataset/전북출산율모델.xlsx
+++ b/data/gihun/dataset/전북출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4295377677564825</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>887</v>
       </c>
       <c r="F81" t="n">
         <v>75.568</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003996271594741218</v>
+      </c>
       <c r="H81" t="n">
         <v>59.6</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.489501312335958</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>762</v>
       </c>
       <c r="F82" t="n">
         <v>75.568</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003985591008981186</v>
+      </c>
       <c r="H82" t="n">
         <v>59.8</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.434279705573081</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>951</v>
       </c>
       <c r="F83" t="n">
         <v>76.017</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003974910423221153</v>
+      </c>
       <c r="H83" t="n">
         <v>60.3</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.4097968936678614</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>837</v>
       </c>
       <c r="F84" t="n">
         <v>76.166</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003964229837461121</v>
+      </c>
       <c r="H84" t="n">
         <v>60.7</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3553971486761711</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>982</v>
       </c>
       <c r="F85" t="n">
         <v>76.39100000000001</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003953549251701088</v>
+      </c>
       <c r="H85" t="n">
         <v>61</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.443800695249131</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>863</v>
       </c>
       <c r="F86" t="n">
         <v>76.241</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003942868665941055</v>
+      </c>
       <c r="H86" t="n">
         <v>61.4</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4194805194805195</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>770</v>
       </c>
       <c r="F87" t="n">
         <v>76.68899999999999</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003932188080181023</v>
+      </c>
       <c r="H87" t="n">
         <v>61.6</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5828488372093024</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>688</v>
       </c>
       <c r="F88" t="n">
         <v>77.063</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003921507494420991</v>
+      </c>
       <c r="H88" t="n">
         <v>62</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.5633802816901409</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>639</v>
       </c>
       <c r="F89" t="n">
         <v>77.21299999999999</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003910826908660958</v>
+      </c>
       <c r="H89" t="n">
         <v>62.3</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.6072992700729927</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>685</v>
       </c>
       <c r="F90" t="n">
         <v>76.764</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003900146322900926</v>
+      </c>
       <c r="H90" t="n">
         <v>62.8</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3727560718057022</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>947</v>
       </c>
       <c r="F91" t="n">
         <v>76.316</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003889465737140893</v>
+      </c>
       <c r="H91" t="n">
         <v>63.4</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.2489421720733427</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1418</v>
       </c>
       <c r="F92" t="n">
         <v>76.541</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003878785151380861</v>
+      </c>
       <c r="H92" t="n">
         <v>63.8</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3686635944700461</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>1085</v>
       </c>
       <c r="F93" t="n">
         <v>76.68899999999999</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003868104565620828</v>
+      </c>
       <c r="H93" t="n">
         <v>64.2</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3960612691466083</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
       <c r="E94" t="n">
         <v>914</v>
       </c>
       <c r="F94" t="n">
         <v>77.21299999999999</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003857766523883061</v>
+      </c>
       <c r="H94" t="n">
         <v>64.59999999999999</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.4291666666666666</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>10.4</v>
+      </c>
       <c r="E95" t="n">
         <v>960</v>
       </c>
       <c r="F95" t="n">
         <v>77.886</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003847428482145295</v>
+      </c>
       <c r="H95" t="n">
         <v>64.7</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.4262672811059908</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>10.8</v>
+      </c>
       <c r="E96" t="n">
         <v>868</v>
       </c>
       <c r="F96" t="n">
         <v>78.11</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003837090440407528</v>
+      </c>
       <c r="H96" t="n">
         <v>64.90000000000001</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3681102362204725</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>11.2</v>
+      </c>
       <c r="E97" t="n">
         <v>1016</v>
       </c>
       <c r="F97" t="n">
         <v>78.11</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003826752398669761</v>
+      </c>
       <c r="H97" t="n">
         <v>65.3</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3919716646989374</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>11.6</v>
+      </c>
       <c r="E98" t="n">
         <v>847</v>
       </c>
       <c r="F98" t="n">
         <v>77.95999999999999</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003816414356931994</v>
+      </c>
       <c r="H98" t="n">
         <v>65.3</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.5074224021592443</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>12</v>
+      </c>
       <c r="E99" t="n">
         <v>741</v>
       </c>
       <c r="F99" t="n">
         <v>78.334</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003806076315194228</v>
+      </c>
       <c r="H99" t="n">
         <v>65.40000000000001</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.5052219321148825</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>12.4</v>
+      </c>
       <c r="E100" t="n">
         <v>766</v>
       </c>
       <c r="F100" t="n">
         <v>78.48399999999999</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003795738273456461</v>
+      </c>
       <c r="H100" t="n">
         <v>65.5</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.498220640569395</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>12.8</v>
+      </c>
       <c r="E101" t="n">
         <v>562</v>
       </c>
       <c r="F101" t="n">
         <v>78.783</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003785400231718694</v>
+      </c>
       <c r="H101" t="n">
         <v>65.59999999999999</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4782082324455206</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>13.2</v>
+      </c>
       <c r="E102" t="n">
         <v>826</v>
       </c>
       <c r="F102" t="n">
         <v>79.00700000000001</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003775062189980927</v>
+      </c>
       <c r="H102" t="n">
         <v>65.90000000000001</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3477851083883129</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>13.6</v>
+      </c>
       <c r="E103" t="n">
         <v>1061</v>
       </c>
       <c r="F103" t="n">
         <v>79.08199999999999</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.00376472414824316</v>
+      </c>
       <c r="H103" t="n">
         <v>66.2</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2955665024630542</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>14</v>
+      </c>
       <c r="E104" t="n">
         <v>1218</v>
       </c>
       <c r="F104" t="n">
         <v>79.381</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003754386106505394</v>
+      </c>
       <c r="H104" t="n">
         <v>66.40000000000001</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.69</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H273" t="n">
         <v>103.8</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.27</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H274" t="n">
         <v>104</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.28</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H275" t="n">
         <v>104.4</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.21</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H276" t="n">
         <v>104.8</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>108</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H277" t="n">
         <v>105.2</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.76</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H278" t="n">
         <v>105.6</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>109.31</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H279" t="n">
         <v>105.9</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>109.06</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H280" t="n">
         <v>106.1</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>109.45</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H281" t="n">
         <v>106</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.62</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H282" t="n">
         <v>105.8</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.5</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H283" t="n">
         <v>104.7</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>23.2</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.52</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H284" t="n">
         <v>103.3</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.42</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001495122306140559</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
